--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_upper_existence.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_upper_existence.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1209,1107 +1209,101 @@
       </c>
     </row>
     <row r="51">
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Audience_Chaos");             var data = SoundManager.current.GetData("BGM/Battle_Audience_Chaos");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Audience_Chaos");             }</t>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>narr_6</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>（対戦相手である「異次元の剣闘士」と刃を交えた瞬間、頭上の虚空が歪む。）</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>（対戦相手である「異次元の剣闘士」と刃を交えた瞬間、頭上の虚空が歪む。）</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="inlineStr">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="F53" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>narr_6</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>（対戦相手である「異次元の剣闘士」と刃を交えた瞬間、頭上の虚空が歪む。）</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>（対戦相手である「異次元の剣闘士」と刃を交えた瞬間、頭上の虚空が歪む。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="D53" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>narr_7</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>（紫色の閃光と共に、戦場に「異質な物体」が次々と降り注ぎ始めた……！）</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>（紫色の閃光と共に、戦場に「異質な物体」が次々と降り注ぎ始めた……！）</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="D54" t="inlineStr">
         <is>
           <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>narr_7</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>（紫色の閃光と共に、戦場に「異質な物体」が次々と降り注ぎ始めた。）</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>（紫色の閃光と共に、戦場に「異質な物体」が次々と降り注ぎ始めた。）</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="D55" t="inlineStr">
         <is>
-          <t>shake</t>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>sukutsu_is_quest_battle_result,1</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>obs_3</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>「おや、当たったぞ！」</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>「おや、当たったぞ！」</t>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>sukutsu_quest_battle,1</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>obs_4</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>「もっと投げろ！」</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>「もっと投げろ！」</t>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("upper_existence_battle", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>obs_5</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>「ふふ、あの慌てた顔……最高だ」</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>「ふふ、あの慌てた顔……最高だ」</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] TODO: 観客のヤジ戦闘 - 落下物ギミック");</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>scene4_aftermath</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>scene4_aftermath</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>narr_8</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>（満身創痍で敵を倒した瞬間、会場を包んだのは喝采ではなく、勝者を馬鹿にするような高い笑い声だった。）</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>（満身創痍で敵を倒した瞬間、会場を包んだのは喝采ではなく、勝者を馬鹿にするような高い笑い声だった。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>narr_9</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>（ロビーに戻ると、リリィがクスクスと笑いながら出迎える。）</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>（ロビーに戻ると、リリィがクスクスと笑いながら出迎える。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>lily_5</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>……ふふ、見事な逃げ回りっぷりでした。</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>……ふふ、見事な逃げ回りっぷりでした。</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>lily_6</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>上の方々は、あなたが重力石に足を取られた時の慌てた顔が、今日一番の傑作だったと仰っていますよ。</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>上の方々は、あなたが重力石に足を取られた時の慌てた顔が、今日一番の傑作だったと仰っていますよ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>narr_10</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>（バルガスが近づいてくる。）</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>（バルガスが近づいてくる。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>balgas_8</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>……ケッ、笑わせておけ。</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>……ケッ、笑わせておけ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>balgas_9</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>生き残れば、そのヤジもいつかは『金』に変わる。</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>生き残れば、そのヤジもいつかは『金』に変わる。</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>balgas_10</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>だがな、次はもっと酷いもんが降ってくるぜ。連中はすぐに飽きるからな。</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>だがな、次はもっと酷いもんが降ってくるぜ。連中はすぐに飽きるからな。</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>balgas_11</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>常に奴らの想像を越える『絶望』を見せてやるか、さっさと全員を黙らせるほど強くなるか……</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>常に奴らの想像を越える『絶望』を見せてやるか、さっさと全員を黙らせるほど強くなるか……</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>balgas_12</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>選ぶのはお前だ。</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>選ぶのはお前だ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>narr_11</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>（リリィは台帳を開き、報酬を記録する。）</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>（リリィは台帳を開き、報酬を記録する。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>lily_7</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>では、報酬の授与です。</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>では、報酬の授与です。</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>lily_8</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>観客からの投げ銭……小さなコイン10枚とプラチナコイン2枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>観客からの投げ銭……小さなコイン10枚とプラチナコイン2枚。それと、戦闘記録として素材を一つ選んでいただけます。</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>reward_choice</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>reward_cloth</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>c_reward_cloth</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>布の切れ端を頼む</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>布の切れ端を頼む</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>reward_iron</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>c_reward_iron</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>鉄の欠片が欲しい</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>鉄の欠片が欲しい</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>reward_bone</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>c_reward_bone</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>骨を選ぶ</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>骨を選ぶ</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>reward_cloth</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>lily_rew1</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>『布の切れ端×1』、記録いたしました。地味ですが、実用的ですね。</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>『布の切れ端×1』、記録いたしました。地味ですが、実用的ですね。</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>EClass.pc.Pick(ThingGen.Create("cloth"));</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>reward_end</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>reward_iron</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>lily_rew2</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>『鉄の欠片×1』、記録いたしました。</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>『鉄の欠片×1』、記録いたしました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>EClass.pc.Pick(ThingGen.Create("fragment_iron"));</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>reward_end</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>reward_bone</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>lily_rew3</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>『骨×1』ですね。……安定の選択ですこと。</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>『骨×1』ですね。……安定の選択ですこと。</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>EClass.pc.Pick(ThingGen.Create("bone"));</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>reward_end</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>reward_end</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>for(int i=0; i&lt;10; i++) { EClass.pc.Pick(ThingGen.Create("coin")); } for(int i=0; i&lt;2; i++) { EClass.pc.Pick(ThingGen.Create("plat")); }</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>lily_9</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>記録完了です。</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>記録完了です。</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>lily_10</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>……それと、今回の戦いで、あなたは観客の『ヤジ』を少し避けられるようになったようですね。称号も記録しておきました。</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>……それと、今回の戦いで、あなたは観客の『ヤジ』を少し避けられるようになったようですね。称号も記録しておきました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>final_choice</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>final_next</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>c_final_next</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>次も……同じことが起きるのか？</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>次も……同じことが起きるのか？</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>final_stop</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>c_final_stop</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>観客を黙らせる方法はないのか？</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>観客を黙らせる方法はないのか？</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>final_tired</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>c_final_tired</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>（疲れた様子で頷く）</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>（疲れた様子で頷く）</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>final_next</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>lily_r4</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>ええ。むしろ、もっと酷くなりますよ。……楽しみにしていてくださいね？</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>ええ。むしろ、もっと酷くなりますよ。……楽しみにしていてくださいね？</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>final_stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>lily_r5</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>ふふ、ありますよ。あなたが彼らの想像を絶する『絶望』を見せれば、彼らは熱狂し、ヤジは止まります。</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>ふふ、ありますよ。あなたが彼らの想像を絶する『絶望』を見せれば、彼らは熱狂し、ヤジは止まります。</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>final_tired</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>lily_r6</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>……お疲れのようですね。ゆっくりお休みください。</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>……お疲れのようですね。ゆっくりお休みください。</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>ending</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>sys_title</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>【システム】称号『笑われる者』を獲得しました。</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>【システム】称号『笑われる者』を獲得しました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] TODO: 称号付与 - 落下物回避率+5%");</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="D121" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_upper_existence.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_upper_existence.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,60 +556,90 @@
       </c>
     </row>
     <row r="12">
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>balgas_1</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>……おい、耳を澄ませ。あの連中の笑い声が聞こえるか？</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>……おい、耳を澄ませ。あの連中の笑い声が聞こえるか？</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>balgas_2</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>ランクDからは、連中はお前をただ観るだけじゃ満足しねえ。</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ランクDからは、連中はお前をただ観るだけじゃ満足しねえ。</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>balgas_3</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>お前の踊りが退屈だったり、逆に『もっと血が見たい』と思われりゃ……上から『プレゼント』が降ってくるぜ。</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>お前の踊りが退屈だったり、逆に『もっと血が見たい』と思われりゃ……上から『プレゼント』が降ってくるぜ。</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="F15" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>balgas_1</t>
+          <t>narr_3</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>……おい、耳を澄ませ。あの連中の笑い声が聞こえるか？</t>
+          <t>（彼は武器を叩き、続ける。）</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>……おい、耳を澄ませ。あの連中の笑い声が聞こえるか？</t>
+          <t>（彼は武器を叩き、続ける。）</t>
         </is>
       </c>
     </row>
@@ -621,17 +651,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>balgas_2</t>
+          <t>balgas_4</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>ランクDからは、連中はお前をただ観るだけじゃ満足しねえ。</t>
+          <t>ヤジ（物理的な嫌がらせ）だ。</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>ランクDからは、連中はお前をただ観るだけじゃ満足しねえ。</t>
+          <t>ヤジ（物理的な嫌がらせ）だ。</t>
         </is>
       </c>
     </row>
@@ -643,39 +673,39 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>balgas_3</t>
+          <t>balgas_5</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>お前の踊りが退屈だったり、逆に『もっと血が見たい』と思われりゃ……上から『プレゼント』が降ってくるぜ。</t>
+          <t>空から降ってくるのは、ポーションかもしれねえし、鈍器かもしれねえ。あるいは地上の物理法則を無視した『異次元のゴミ』だ。</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>お前の踊りが退屈だったり、逆に『もっと血が見たい』と思われりゃ……上から『プレゼント』が降ってくるぜ。</t>
+          <t>空から降ってくるのは、ポーションかもしれねえし、鈍器かもしれねえ。あるいは地上の物理法則を無視した『異次元のゴミ』だ。</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="F18" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>narr_3</t>
+          <t>balgas_6</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>（彼は武器を叩き、続ける。）</t>
+          <t>敵だけを見てりゃ、頭を割られて終わりだぞ。</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>（彼は武器を叩き、続ける。）</t>
+          <t>敵だけを見てりゃ、頭を割られて終わりだぞ。</t>
         </is>
       </c>
     </row>
@@ -687,178 +717,148 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>balgas_4</t>
+          <t>balgas_7</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>ヤジ（物理的な嫌がらせ）だ。</t>
+          <t>空の機嫌も伺いながら戦え……クソッタレな商売だろう？</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>ヤジ（物理的な嫌がらせ）だ。</t>
+          <t>空の機嫌も伺いながら戦え……クソッタレな商売だろう？</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>balgas_5</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>空から降ってくるのは、ポーションかもしれねえし、鈍器かもしれねえ。あるいは地上の物理法則を無視した『異次元のゴミ』だ。</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>空から降ってくるのは、ポーションかもしれねえし、鈍器かもしれねえ。あるいは地上の物理法則を無視した『異次元のゴミ』だ。</t>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>choice1</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>react1_how</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>balgas_6</t>
+          <t>c1_how</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>敵だけを見てりゃ、頭を割られて終わりだぞ。</t>
+          <t>対処法はあるのか？</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>敵だけを見てりゃ、頭を割られて終わりだぞ。</t>
+          <t>対処法はあるのか？</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>react1_silence</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>balgas_7</t>
+          <t>c1_silence</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>空の機嫌も伺いながら戦え……クソッタレな商売だろう？</t>
+          <t>観客を黙らせることはできないのか？</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>空の機嫌も伺いながら戦え……クソッタレな商売だろう？</t>
+          <t>観客を黙らせることはできないのか？</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>choice1</t>
+          <t>react1_ok</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>c1_ok</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>……分かった</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>……分かった</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>react1_how</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>c1_how</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>対処法はあるのか？</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>対処法はあるのか？</t>
-        </is>
-      </c>
     </row>
     <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>react1_silence</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>c1_silence</t>
+          <t>balgas_r1</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>観客を黙らせることはできないのか？</t>
+          <t>動き続けることだ。止まれば標的になる。……あと、運を祈れ。</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>観客を黙らせることはできないのか？</t>
+          <t>動き続けることだ。止まれば標的になる。……あと、運を祈れ。</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>react1_ok</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>c1_ok</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>……分かった</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>……分かった</t>
+          <t>scene2_announcement</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>react1_how</t>
+          <t>react1_silence</t>
         </is>
       </c>
     </row>
@@ -870,17 +870,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>balgas_r1</t>
+          <t>balgas_r2</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>動き続けることだ。止まれば標的になる。……あと、運を祈れ。</t>
+          <t>無理だ。奴らは高次元にいる。俺たちには手が届かねえ。</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>動き続けることだ。止まれば標的になる。……あと、運を祈れ。</t>
+          <t>無理だ。奴らは高次元にいる。俺たちには手が届かねえ。</t>
         </is>
       </c>
     </row>
@@ -894,7 +894,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>react1_silence</t>
+          <t>react1_ok</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>balgas_r2</t>
+          <t>balgas_r3</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>無理だ。奴らは高次元にいる。俺たちには手が届かねえ。</t>
+          <t>……気をつけろ。死ぬなよ。</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>無理だ。奴らは高次元にいる。俺たちには手が届かねえ。</t>
+          <t>……気をつけろ。死ぬなよ。</t>
         </is>
       </c>
     </row>
@@ -930,77 +930,107 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>react1_ok</t>
+          <t>scene2_announcement</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>balgas_r3</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>……気をつけろ。死ぬなよ。</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>……気をつけろ。死ぬなよ。</t>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Fanfare_Audience");             var data = SoundManager.current.GetData("BGM/Fanfare_Audience");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Fanfare_Audience");             }</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>scene2_announcement</t>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>narr_4</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>（闘技場に足を踏み入れると、姿の見えない観客たちの熱気が、肌を焼くような不快な波動となって押し寄せる。）</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>（闘技場に足を踏み入れると、姿の見えない観客たちの熱気が、肌を焼くような不快な波動となって押し寄せる。）</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>scene2_announcement</t>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>narr_5</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>（リリィの声が、魔術的な拡声によって会場全体に響き渡った。）</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>（リリィの声が、魔術的な拡声によって会場全体に響き渡った。）</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Fanfare_Audience");             var data = SoundManager.current.GetData("BGM/Fanfare_Audience");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Fanfare_Audience");             }</t>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>lily_1</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>……皆様、お待たせいたしました。</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>……皆様、お待たせいたしました。</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>narr_4</t>
+          <t>lily_2</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>（闘技場に足を踏み入れると、姿の見えない観客たちの熱気が、肌を焼くような不快な波動となって押し寄せる。）</t>
+          <t>本日のメインディッシュは、新たな『銅貨稼ぎ』……期待の新人による、命の切り売りでございます！</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>（闘技場に足を踏み入れると、姿の見えない観客たちの熱気が、肌を焼くような不快な波動となって押し寄せる。）</t>
+          <t>本日のメインディッシュは、新たな『銅貨稼ぎ』……期待の新人による、命の切り売りでございます！</t>
         </is>
       </c>
     </row>
@@ -1012,97 +1042,97 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>narr_5</t>
+          <t>obs_1</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>（リリィの声が、魔術的な拡声によって会場全体に響き渡った。）</t>
+          <t>（観客の歓声と拍手のような音が響く。）</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>（リリィの声が、魔術的な拡声によって会場全体に響き渡った。）</t>
+          <t>（観客の歓声と拍手のような音が響く。）</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>lily_3</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>さあ、皆様。もしこの闘士の戦いぶりがお気に召さない、あるいは『もっと刺激が欲しい』と感じられましたら……</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>さあ、皆様。もしこの闘士の戦いぶりがお気に召さない、あるいは『もっと刺激が欲しい』と感じられましたら……</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>lily_4</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>どうぞ、お手元の『慈悲』を投げ込んであげてくださいな！</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>どうぞ、お手元の『慈悲』を投げ込んであげてくださいな！</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>obs_2</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>（観客の笑い声、何かが飛んでくる音。）</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>（観客の笑い声、何かが飛んでくる音。）</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>lily_1</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>……皆様、お待たせいたしました。</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>……皆様、お待たせいたしました。</t>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>scene3_battle</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>lily_2</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>本日のメインディッシュは、新たな『銅貨稼ぎ』……期待の新人による、命の切り売りでございます！</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>本日のメインディッシュは、新たな『銅貨稼ぎ』……期待の新人による、命の切り売りでございます！</t>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>scene3_battle</t>
         </is>
       </c>
     </row>
@@ -1114,196 +1144,94 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>obs_1</t>
+          <t>narr_6</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>（観客の歓声と拍手のような音が響く。）</t>
+          <t>（対戦相手である「異次元の剣闘士」と刃を交えた瞬間、頭上の虚空が歪む。）</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>（観客の歓声と拍手のような音が響く。）</t>
+          <t>（対戦相手である「異次元の剣闘士」と刃を交えた瞬間、頭上の虚空が歪む。）</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>lily_3</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>さあ、皆様。もしこの闘士の戦いぶりがお気に召さない、あるいは『もっと刺激が欲しい』と感じられましたら……</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>さあ、皆様。もしこの闘士の戦いぶりがお気に召さない、あるいは『もっと刺激が欲しい』と感じられましたら……</t>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="F47" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>lily_4</t>
+          <t>narr_7</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>どうぞ、お手元の『慈悲』を投げ込んであげてくださいな！</t>
+          <t>（紫色の閃光と共に、戦場に「異質な物体」が次々と降り注ぎ始めた……！）</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>どうぞ、お手元の『慈悲』を投げ込んであげてくださいな！</t>
+          <t>（紫色の閃光と共に、戦場に「異質な物体」が次々と降り注ぎ始めた……！）</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>obs_2</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>（観客の笑い声、何かが飛んでくる音。）</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>（観客の笑い声、何かが飛んでくる音。）</t>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>scene3_battle</t>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>sukutsu_is_quest_battle_result,1</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>scene3_battle</t>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>sukutsu_quest_battle,1</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>narr_6</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>（対戦相手である「異次元の剣闘士」と刃を交えた瞬間、頭上の虚空が歪む。）</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>（対戦相手である「異次元の剣闘士」と刃を交えた瞬間、頭上の虚空が歪む。）</t>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("upper_existence_battle", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="D52" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>narr_7</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>（紫色の閃光と共に、戦場に「異質な物体」が次々と降り注ぎ始めた……！）</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>（紫色の閃光と共に、戦場に「異質な物体」が次々と降り注ぎ始めた……！）</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>sukutsu_is_quest_battle_result,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>sukutsu_quest_battle,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("upper_existence_battle", "sukutsu_arena_master");</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="D58" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_upper_existence.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_upper_existence.xlsx
@@ -648,12 +648,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>お前の踊りが退屈だったり、逆に『もっと血が見たい』と思われりゃ……上から『プレゼント』が降ってくるぜ。</t>
+          <t>お前の踊りが退屈だったり、逆に『もっと血が見たい』と思われりゃ……次元の向こうから『プレゼント』が投げ込まれるぜ。</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>お前の踊りが退屈だったり、逆に『もっと血が見たい』と思われりゃ……上から『プレゼント』が降ってくるぜ。</t>
+          <t>お前の踊りが退屈だったり、逆に『もっと血が見たい』と思われりゃ……次元の向こうから『プレゼント』が投げ込まれるぜ。</t>
         </is>
       </c>
     </row>
@@ -714,12 +714,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>空から降ってくるのは、ポーションかもしれねえし、鈍器かもしれねえ。あるいは地上の物理法則を無視した『異次元のゴミ』だ。</t>
+          <t>爆風とともに飛んでくるのは、ポーションかもしれねえし、鈍器かもしれねえ。あるいは地上の物理法則を無視した『異次元のゴミ』だ。</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>空から降ってくるのは、ポーションかもしれねえし、鈍器かもしれねえ。あるいは地上の物理法則を無視した『異次元のゴミ』だ。</t>
+          <t>爆風とともに飛んでくるのは、ポーションかもしれねえし、鈍器かもしれねえ。あるいは地上の物理法則を無視した『異次元のゴミ』だ。</t>
         </is>
       </c>
     </row>
@@ -1163,12 +1163,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>どうぞ、お手元の『慈悲』を投げ込んであげてくださいな！</t>
+          <t>どうぞ、お手元の『慈悲』を……次元を超えて投げ込んであげてくださいな！</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>どうぞ、お手元の『慈悲』を投げ込んであげてくださいな！</t>
+          <t>どうぞ、お手元の『慈悲』を……次元を超えて投げ込んであげてくださいな！</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_upper_existence.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_upper_existence.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,194 +488,164 @@
     <row r="7">
       <c r="D7" t="inlineStr">
         <is>
+          <t>fadeOut</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.0,black</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="inlineStr">
+        <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/arena_battle_normal".LoadSprite();</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>fadeIn</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.0,black</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_01");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_01");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_01");             }</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="F8" t="inlineStr">
+    <row r="11">
+      <c r="F11" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>narr_1</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>（門扉の前に立つあなたに対し、バルガスはいつになく真剣な表情で、武器の調子を確認している。）</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>（門扉の前に立つあなたに対し、バルガスはいつになく真剣な表情で、武器の調子を確認している。）</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="F9" t="inlineStr">
+    <row r="12">
+      <c r="F12" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>narr_2</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>（上空からは、地鳴りのような低い笑い声が降ってきている。）</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>（上空からは、地鳴りのような低い笑い声が降ってきている。）</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
+    <row r="13">
+      <c r="B13" t="inlineStr">
         <is>
           <t>scene1_warning</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>scene1_warning</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="D12" t="inlineStr">
+    <row r="15">
+      <c r="D15" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="D13" t="inlineStr">
+    <row r="16">
+      <c r="D16" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="D14" t="inlineStr">
+    <row r="17">
+      <c r="D17" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>balgas_1</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>……おい、耳を澄ませ。あの連中の笑い声が聞こえるか？</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>……おい、耳を澄ませ。あの連中の笑い声が聞こえるか？</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>balgas_2</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>ランクDからは、連中はお前をただ観るだけじゃ満足しねえ。</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>ランクDからは、連中はお前をただ観るだけじゃ満足しねえ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>balgas_3</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>お前の踊りが退屈だったり、逆に『もっと血が見たい』と思われりゃ……次元の向こうから『プレゼント』が投げ込まれるぜ。</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>お前の踊りが退屈だったり、逆に『もっと血が見たい』と思われりゃ……次元の向こうから『プレゼント』が投げ込まれるぜ。</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="F18" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>narr_3</t>
+          <t>balgas_1</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>（彼は武器を叩き、続ける。）</t>
+          <t>……おい、耳を澄ませ。あの連中の笑い声が聞こえるか？</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>（彼は武器を叩き、続ける。）</t>
+          <t>……おい、耳を澄ませ。あの連中の笑い声が聞こえるか？</t>
         </is>
       </c>
     </row>
@@ -687,17 +657,17 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>balgas_4</t>
+          <t>balgas_2</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>ヤジ（物理的な嫌がらせ）だ。</t>
+          <t>ランクDからは、連中はお前をただ観るだけじゃ満足しねえ。</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>ヤジ（物理的な嫌がらせ）だ。</t>
+          <t>ランクDからは、連中はお前をただ観るだけじゃ満足しねえ。</t>
         </is>
       </c>
     </row>
@@ -709,39 +679,39 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>balgas_5</t>
+          <t>balgas_3</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>爆風とともに飛んでくるのは、ポーションかもしれねえし、鈍器かもしれねえ。あるいは地上の物理法則を無視した『異次元のゴミ』だ。</t>
+          <t>お前の踊りが退屈だったり、逆に『もっと血が見たい』と思われりゃ……次元の向こうから『プレゼント』が投げ込まれるぜ。</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>爆風とともに飛んでくるのは、ポーションかもしれねえし、鈍器かもしれねえ。あるいは地上の物理法則を無視した『異次元のゴミ』だ。</t>
+          <t>お前の踊りが退屈だったり、逆に『もっと血が見たい』と思われりゃ……次元の向こうから『プレゼント』が投げ込まれるぜ。</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="F21" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>balgas_6</t>
+          <t>narr_3</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>敵だけを見てりゃ、頭を割られて終わりだぞ。</t>
+          <t>（彼は武器を叩き、続ける。）</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>敵だけを見てりゃ、頭を割られて終わりだぞ。</t>
+          <t>（彼は武器を叩き、続ける。）</t>
         </is>
       </c>
     </row>
@@ -753,148 +723,178 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>balgas_4</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>ヤジ（物理的な嫌がらせ）だ。</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ヤジ（物理的な嫌がらせ）だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>balgas_5</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>爆風とともに飛んでくるのは、ポーションかもしれねえし、鈍器かもしれねえ。あるいは地上の物理法則を無視した『異次元のゴミ』だ。</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>爆風とともに飛んでくるのは、ポーションかもしれねえし、鈍器かもしれねえ。あるいは地上の物理法則を無視した『異次元のゴミ』だ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>balgas_6</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>敵だけを見てりゃ、頭を割られて終わりだぞ。</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>敵だけを見てりゃ、頭を割られて終わりだぞ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>balgas_7</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>空の機嫌も伺いながら戦え……クソッタレな商売だろう？</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>空の機嫌も伺いながら戦え……クソッタレな商売だろう？</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>choice1</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>react1_how</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>c1_how</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>対処法はあるのか？</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>対処法はあるのか？</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>react1_silence</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>c1_silence</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>観客を黙らせることはできないのか？</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>観客を黙らせることはできないのか？</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>react1_ok</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
+          <t>choice1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>react1_how</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>c1_ok</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>……分かった</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>……分かった</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>react1_how</t>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>c1_how</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>対処法はあるのか？</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>対処法はあるのか？</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>react1_silence</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>balgas_r1</t>
+          <t>c1_silence</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>動き続けることだ。止まれば標的になる。……あと、運を祈れ。</t>
+          <t>観客を黙らせることはできないのか？</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>動き続けることだ。止まれば標的になる。……あと、運を祈れ。</t>
+          <t>観客を黙らせることはできないのか？</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>scene2_announcement</t>
+          <t>react1_ok</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>c1_ok</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>……分かった</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>……分かった</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>react1_silence</t>
+          <t>react1_how</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>balgas_r2</t>
+          <t>balgas_r1</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>無理だ。奴らは高次元にいる。俺たちには手が届かねえ。</t>
+          <t>動き続けることだ。止まれば標的になる。……あと、運を祈れ。</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>無理だ。奴らは高次元にいる。俺たちには手が届かねえ。</t>
+          <t>動き続けることだ。止まれば標的になる。……あと、運を祈れ。</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>react1_ok</t>
+          <t>react1_silence</t>
         </is>
       </c>
     </row>
@@ -942,17 +942,17 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>balgas_r3</t>
+          <t>balgas_r2</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>……気をつけろ。死ぬなよ。</t>
+          <t>無理だ。奴らは高次元にいる。俺たちには手が届かねえ。</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>……気をつけろ。死ぬなよ。</t>
+          <t>無理だ。奴らは高次元にいる。俺たちには手が届かねえ。</t>
         </is>
       </c>
     </row>
@@ -966,165 +966,135 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>react1_ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>balgas_r3</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>……気をつけろ。死ぬなよ。</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>……気をつけろ。死ぬなよ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
           <t>scene2_announcement</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Fanfare_Audience");             var data = SoundManager.current.GetData("BGM/Fanfare_Audience");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Fanfare_Audience");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>narr_4</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>（闘技場に足を踏み入れると、姿の見えない観客たちの熱気が、肌を焼くような不快な波動となって押し寄せる。）</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>（闘技場に足を踏み入れると、姿の見えない観客たちの熱気が、肌を焼くような不快な波動となって押し寄せる。）</t>
-        </is>
-      </c>
-    </row>
     <row r="39">
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>narr_5</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>（リリィの声が、魔術的な拡声によって会場全体に響き渡った。）</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>（リリィの声が、魔術的な拡声によって会場全体に響き渡った。）</t>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>scene2_announcement</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="D40" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Fanfare_Audience");             var data = SoundManager.current.GetData("BGM/Fanfare_Audience");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Fanfare_Audience");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>narr_4</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>（闘技場に足を踏み入れると、姿の見えない観客たちの熱気が、肌を焼くような不快な波動となって押し寄せる。）</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>（闘技場に足を踏み入れると、姿の見えない観客たちの熱気が、肌を焼くような不快な波動となって押し寄せる。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>narr_5</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>（リリィの声が、魔術的な拡声によって会場全体に響き渡った。）</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>（リリィの声が、魔術的な拡声によって会場全体に響き渡った。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="D43" t="inlineStr">
+        <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="D41" t="inlineStr">
+    <row r="44">
+      <c r="D44" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="D42" t="inlineStr">
+    <row r="45">
+      <c r="D45" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>lily_1</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>……皆様、お待たせいたしました。</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>……皆様、お待たせいたしました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>lily_2</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>本日のメインディッシュは、新たな『銅貨稼ぎ』……期待の新人による、命の切り売りでございます！</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>本日のメインディッシュは、新たな『銅貨稼ぎ』……期待の新人による、命の切り売りでございます！</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>obs_1</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>（観客の歓声と拍手のような音が響く。）</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>（観客の歓声と拍手のような音が響く。）</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1106,17 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>lily_3</t>
+          <t>lily_1</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>さあ、皆様。もしこの闘士の戦いぶりがお気に召さない、あるいは『もっと刺激が欲しい』と感じられましたら……</t>
+          <t>……皆様、お待たせいたしました。</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>さあ、皆様。もしこの闘士の戦いぶりがお気に召さない、あるいは『もっと刺激が欲しい』と感じられましたら……</t>
+          <t>……皆様、お待たせいたしました。</t>
         </is>
       </c>
     </row>
@@ -1158,17 +1128,17 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>lily_4</t>
+          <t>lily_2</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>どうぞ、お手元の『慈悲』を……次元を超えて投げ込んであげてくださいな！</t>
+          <t>本日のメインディッシュは、新たな『銅貨稼ぎ』……期待の新人による、命の切り売りでございます！</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>どうぞ、お手元の『慈悲』を……次元を超えて投げ込んであげてくださいな！</t>
+          <t>本日のメインディッシュは、新たな『銅貨稼ぎ』……期待の新人による、命の切り売りでございます！</t>
         </is>
       </c>
     </row>
@@ -1180,31 +1150,61 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>obs_2</t>
+          <t>obs_1</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>（観客の笑い声、何かが飛んでくる音。）</t>
+          <t>（観客の歓声と拍手のような音が響く。）</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>（観客の笑い声、何かが飛んでくる音。）</t>
+          <t>（観客の歓声と拍手のような音が響く。）</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>scene3_battle</t>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>lily_3</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>さあ、皆様。もしこの闘士の戦いぶりがお気に召さない、あるいは『もっと刺激が欲しい』と感じられましたら……</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>さあ、皆様。もしこの闘士の戦いぶりがお気に召さない、あるいは『もっと刺激が欲しい』と感じられましたら……</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>scene3_battle</t>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>lily_4</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>どうぞ、お手元の『慈悲』を……次元を超えて投げ込んであげてくださいな！</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>どうぞ、お手元の『慈悲』を……次元を超えて投げ込んであげてくださいな！</t>
         </is>
       </c>
     </row>
@@ -1216,94 +1216,130 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
+          <t>obs_2</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>（観客の笑い声、何かが飛んでくる音。）</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>（観客の笑い声、何かが飛んでくる音。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>scene3_battle</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>scene3_battle</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
           <t>narr_6</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>（対戦相手である「異次元の剣闘士」と刃を交えた瞬間、頭上の虚空が歪む。）</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>（対戦相手である「異次元の剣闘士」と刃を交えた瞬間、頭上の虚空が歪む。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>narr_7</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>（紫色の閃光と共に、戦場に「異質な物体」が次々と降り注ぎ始めた……！）</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>（紫色の閃光と共に、戦場に「異質な物体」が次々と降り注ぎ始めた……！）</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="D55" t="inlineStr">
         <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>sukutsu_is_quest_battle_result,1</t>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>setFlag</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>sukutsu_quest_battle,1</t>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>narr_7</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>（紫色の閃光と共に、戦場に「異質な物体」が次々と降り注ぎ始めた……！）</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>（紫色の閃光と共に、戦場に「異質な物体」が次々と降り注ぎ始めた……！）</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="D57" t="inlineStr">
         <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("upper_existence_battle", "sukutsu_arena_master");</t>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="D58" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>sukutsu_is_quest_battle_result,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>setFlag</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>sukutsu_quest_battle,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("upper_existence_battle", "sukutsu_arena_master");</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="D61" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_upper_existence.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_upper_existence.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,40 +439,45 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>if2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>action</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>actor</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>text_JP</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>text_EN</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>text</t>
         </is>
@@ -486,860 +491,1018 @@
       </c>
     </row>
     <row r="7">
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>fadeOut</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/arena_battle_normal".LoadSprite();</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>fadeIn</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>narr_0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>（ロビーに戻ると、バルガスがあなたを呼び止めた。）</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>（ロビーに戻ると、バルガスがあなたを呼び止めた。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>balgas_0a</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>……おい、お前。次はランクD『銅貨稼ぎ』への挑戦だな。</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>……おい、お前。次はランクD『銅貨稼ぎ』への挑戦だな。</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>balgas_0b</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>まぁ待て。その前に、一つ教えておくことがある……</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>まぁ待て。その前に、一つ教えておくことがある……</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>balgas_0c</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>来い。実際に見せてやる。</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>来い。実際に見せてやる。</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>narr_0b</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>（バルガスに連れられ、闘技場の門扉前へと向かう。）</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>（バルガスに連れられ、闘技場の門扉前へと向かう。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_01");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_01");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_01");             }</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="F11" t="inlineStr">
+    <row r="20">
+      <c r="G20" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>narr_1</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>（門扉の前に立つあなたに対し、バルガスはいつになく真剣な表情で、武器の調子を確認している。）</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>（門扉の前に立つあなたに対し、バルガスはいつになく真剣な表情で、武器の調子を確認している。）</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="F12" t="inlineStr">
+    <row r="21">
+      <c r="G21" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>narr_2</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>（上空からは、地鳴りのような低い笑い声が降ってきている。）</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>（上空からは、地鳴りのような低い笑い声が降ってきている。）</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" t="inlineStr">
+    <row r="22">
+      <c r="B22" t="inlineStr">
         <is>
           <t>scene1_warning</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>scene1_warning</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="D15" t="inlineStr">
+    <row r="24">
+      <c r="E24" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="D16" t="inlineStr">
+    <row r="25">
+      <c r="E25" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="D17" t="inlineStr">
+    <row r="26">
+      <c r="E26" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="F18" t="inlineStr">
+    <row r="27">
+      <c r="G27" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>balgas_1</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>……おい、耳を澄ませ。あの連中の笑い声が聞こえるか？</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>……おい、耳を澄ませ。あの連中の笑い声が聞こえるか？</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="F19" t="inlineStr">
+    <row r="28">
+      <c r="G28" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>balgas_2</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>ランクDからは、連中はお前をただ観るだけじゃ満足しねえ。</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>ランクDからは、連中はお前をただ観るだけじゃ満足しねえ。</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="F20" t="inlineStr">
+    <row r="29">
+      <c r="G29" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>balgas_3</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>お前の踊りが退屈だったり、逆に『もっと血が見たい』と思われりゃ……次元の向こうから『プレゼント』が投げ込まれるぜ。</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>お前の踊りが退屈だったり、逆に『もっと血が見たい』と思われりゃ……次元の向こうから『プレゼント』が投げ込まれるぜ。</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="F21" t="inlineStr">
+    <row r="30">
+      <c r="G30" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>narr_3</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>（彼は武器を叩き、続ける。）</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>（彼は武器を叩き、続ける。）</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="F22" t="inlineStr">
+    <row r="31">
+      <c r="G31" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>balgas_4</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>ヤジ（物理的な嫌がらせ）だ。</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>ヤジ（物理的な嫌がらせ）だ。</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="F23" t="inlineStr">
+    <row r="32">
+      <c r="G32" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>balgas_5</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>爆風とともに飛んでくるのは、ポーションかもしれねえし、鈍器かもしれねえ。あるいは地上の物理法則を無視した『異次元のゴミ』だ。</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>爆風とともに飛んでくるのは、ポーションかもしれねえし、鈍器かもしれねえ。あるいは地上の物理法則を無視した『異次元のゴミ』だ。</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="F24" t="inlineStr">
+    <row r="33">
+      <c r="G33" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>balgas_6</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>敵だけを見てりゃ、頭を割られて終わりだぞ。</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>敵だけを見てりゃ、頭を割られて終わりだぞ。</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="F25" t="inlineStr">
+    <row r="34">
+      <c r="G34" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>balgas_7</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>空の機嫌も伺いながら戦え……クソッタレな商売だろう？</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>空の機嫌も伺いながら戦え……クソッタレな商売だろう？</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>choice1</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>react1_how</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>c1_how</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>対処法はあるのか？</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>対処法はあるのか？</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>react1_silence</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>c1_silence</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>観客を黙らせることはできないのか？</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>観客を黙らせることはできないのか？</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>react1_ok</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>c1_ok</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>……分かった</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>……分かった</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>react1_how</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>balgas_r1</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>動き続けることだ。止まれば標的になる。……あと、運を祈れ。</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>動き続けることだ。止まれば標的になる。……あと、運を祈れ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>scene2_announcement</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>react1_silence</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>balgas_r2</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>無理だ。奴らは高次元にいる。俺たちには手が届かねえ。</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>無理だ。奴らは高次元にいる。俺たちには手が届かねえ。</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>scene2_announcement</t>
+          <t>choice1</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>react1_ok</t>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>react1_how</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>c1_how</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>対処法はあるのか？</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>対処法はあるのか？</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>balgas_r3</t>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>react1_silence</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>……気をつけろ。死ぬなよ。</t>
+          <t>c1_silence</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>……気をつけろ。死ぬなよ。</t>
+          <t>観客を黙らせることはできないのか？</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>観客を黙らせることはできないのか？</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>scene2_announcement</t>
+          <t>react1_ok</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>c1_ok</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>……分かった</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>……分かった</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>react1_how</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>balgas_r1</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>動き続けることだ。止まれば標的になる。……あと、運を祈れ。</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>動き続けることだ。止まれば標的になる。……あと、運を祈れ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
           <t>scene2_announcement</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="D40" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>react1_silence</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>balgas_r2</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>無理だ。奴らは高次元にいる。俺たちには手が届かねえ。</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>無理だ。奴らは高次元にいる。俺たちには手が届かねえ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>scene2_announcement</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>react1_ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>balgas_r3</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>……気をつけろ。死ぬなよ。</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>……気をつけろ。死ぬなよ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>scene2_announcement</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>scene2_announcement</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Fanfare_Audience");             var data = SoundManager.current.GetData("BGM/Fanfare_Audience");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Fanfare_Audience");             }</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="F41" t="inlineStr">
+    <row r="50">
+      <c r="G50" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>narr_4</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>（闘技場に足を踏み入れると、姿の見えない観客たちの熱気が、肌を焼くような不快な波動となって押し寄せる。）</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>（闘技場に足を踏み入れると、姿の見えない観客たちの熱気が、肌を焼くような不快な波動となって押し寄せる。）</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="F42" t="inlineStr">
+    <row r="51">
+      <c r="G51" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>narr_5</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>（リリィの声が、魔術的な拡声によって会場全体に響き渡った。）</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>（リリィの声が、魔術的な拡声によって会場全体に響き渡った。）</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="D43" t="inlineStr">
+    <row r="52">
+      <c r="E52" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="D44" t="inlineStr">
+    <row r="53">
+      <c r="E53" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="D45" t="inlineStr">
+    <row r="54">
+      <c r="E54" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="F46" t="inlineStr">
+    <row r="55">
+      <c r="G55" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>lily_1</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>……皆様、お待たせいたしました。</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>……皆様、お待たせいたしました。</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="F47" t="inlineStr">
+    <row r="56">
+      <c r="G56" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>lily_2</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>本日のメインディッシュは、新たな『銅貨稼ぎ』……期待の新人による、命の切り売りでございます！</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>本日のメインディッシュは、新たな『銅貨稼ぎ』……期待の新人による、命の切り売りでございます！</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="F48" t="inlineStr">
+    <row r="57">
+      <c r="G57" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>obs_1</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>（観客の歓声と拍手のような音が響く。）</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>（観客の歓声と拍手のような音が響く。）</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="F49" t="inlineStr">
+    <row r="58">
+      <c r="G58" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>lily_3</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>さあ、皆様。もしこの闘士の戦いぶりがお気に召さない、あるいは『もっと刺激が欲しい』と感じられましたら……</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>さあ、皆様。もしこの闘士の戦いぶりがお気に召さない、あるいは『もっと刺激が欲しい』と感じられましたら……</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="F50" t="inlineStr">
+    <row r="59">
+      <c r="G59" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>lily_4</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>どうぞ、お手元の『慈悲』を……次元を超えて投げ込んであげてくださいな！</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>どうぞ、お手元の『慈悲』を……次元を超えて投げ込んであげてくださいな！</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="F51" t="inlineStr">
+    <row r="60">
+      <c r="G60" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>obs_2</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>（観客の笑い声、何かが飛んでくる音。）</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>（観客の笑い声、何かが飛んでくる音。）</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="B52" t="inlineStr">
+    <row r="61">
+      <c r="B61" t="inlineStr">
         <is>
           <t>scene3_battle</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>scene3_battle</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="F54" t="inlineStr">
+    <row r="63">
+      <c r="G63" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>narr_6</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>（対戦相手である「異次元の剣闘士」と刃を交えた瞬間、頭上の虚空が歪む。）</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>（対戦相手である「異次元の剣闘士」と刃を交えた瞬間、頭上の虚空が歪む。）</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="D55" t="inlineStr">
+    <row r="64">
+      <c r="E64" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="F56" t="inlineStr">
+    <row r="65">
+      <c r="G65" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>narr_7</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>（紫色の閃光と共に、戦場に「異質な物体」が次々と降り注ぎ始めた……！）</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>（紫色の閃光と共に、戦場に「異質な物体」が次々と降り注ぎ始めた……！）</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="D57" t="inlineStr">
+    <row r="66">
+      <c r="E66" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="D58" t="inlineStr">
+    <row r="67">
+      <c r="E67" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>sukutsu_is_quest_battle_result,1</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="D59" t="inlineStr">
+    <row r="68">
+      <c r="E68" t="inlineStr">
         <is>
           <t>setFlag</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>sukutsu_quest_battle,1</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="D60" t="inlineStr">
+    <row r="69">
+      <c r="E69" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("upper_existence_battle", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="D61" t="inlineStr">
+    <row r="70">
+      <c r="E70" t="inlineStr">
         <is>
           <t>end</t>
         </is>
